--- a/data/Concentration_Data_Plattsburgh_example.xlsx
+++ b/data/Concentration_Data_Plattsburgh_example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hmori\Desktop\5648_TA2_Transition_Assessment_Assistant_working\5648_TA2-Transition-Assessment-Assistant_1a\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gsienvironmental-my.sharepoint.com/personal/hmori_gsi-net_com/Documents/Desktop/5648_wroking/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13921F72-319B-4BC5-B8A4-0B9A06845877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="13440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="71895" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Concentration_Time_Data" sheetId="1" r:id="rId1"/>
@@ -527,12 +527,12 @@
       <selection activeCell="H11" sqref="H11:H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -549,7 +549,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>1</v>
       </c>
@@ -566,7 +566,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>2</v>
       </c>
@@ -583,7 +583,7 @@
         <v>20.666666666666668</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>3</v>
       </c>
@@ -600,7 +600,7 @@
         <v>18.333333333333332</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>4</v>
       </c>
@@ -617,7 +617,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>5</v>
       </c>
@@ -634,7 +634,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>6</v>
       </c>
@@ -651,7 +651,7 @@
         <v>13.333333333333334</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>7</v>
       </c>
@@ -668,7 +668,7 @@
         <v>15.333333333333334</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>8</v>
       </c>
@@ -685,7 +685,7 @@
         <v>10.333333333333334</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>9</v>
       </c>
@@ -702,7 +702,7 @@
         <v>9.6666666666666661</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>10</v>
       </c>
@@ -719,7 +719,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>11</v>
       </c>
@@ -736,7 +736,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>12</v>
       </c>
@@ -753,7 +753,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>13</v>
       </c>
@@ -770,7 +770,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>14</v>
       </c>
@@ -787,7 +787,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>15</v>
       </c>
@@ -804,7 +804,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>16</v>
       </c>
@@ -821,7 +821,7 @@
         <v>8.94</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>17</v>
       </c>
@@ -838,7 +838,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>18</v>
       </c>
@@ -855,7 +855,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>19</v>
       </c>
@@ -872,7 +872,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>20</v>
       </c>
@@ -889,7 +889,7 @@
         <v>9.26</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>21</v>
       </c>
@@ -906,7 +906,7 @@
         <v>7.31</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <v>22</v>
       </c>
@@ -923,7 +923,7 @@
         <v>8.58</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <v>23</v>
       </c>
@@ -940,7 +940,7 @@
         <v>6.69</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
         <v>24</v>
       </c>
@@ -957,7 +957,7 @@
         <v>8.07</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
         <v>25</v>
       </c>
@@ -974,7 +974,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
         <v>26</v>
       </c>
@@ -991,7 +991,7 @@
         <v>9.0399999999999991</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1008,7 +1008,7 @@
         <v>7.24</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1025,7 +1025,7 @@
         <v>8.5500000000000007</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1042,7 +1042,7 @@
         <v>8.41</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1059,7 +1059,7 @@
         <v>9.11</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1076,7 +1076,7 @@
         <v>8.49</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1093,7 +1093,7 @@
         <v>8.51</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1127,7 +1127,7 @@
         <v>8.86</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1144,7 +1144,7 @@
         <v>7.73</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1161,7 +1161,7 @@
         <v>8.2100000000000009</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1178,7 +1178,7 @@
         <v>8.19</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1195,7 +1195,7 @@
         <v>8.02</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1212,7 +1212,7 @@
         <v>8.76</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>8.01</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1246,7 +1246,7 @@
         <v>7.38</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1263,7 +1263,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1280,7 +1280,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1297,7 +1297,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1314,7 +1314,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1331,7 +1331,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1348,7 +1348,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1365,7 +1365,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1382,7 +1382,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1399,52 +1399,52 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B52" s="1"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B53" s="1"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B54" s="1"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B55" s="1"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B56" s="1"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B57" s="1"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B58" s="1"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B59" s="1"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B60" s="1"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B61" s="1"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B62" s="1"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B63" s="1"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B64" s="1"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B65" s="1"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B66" s="1"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B67" s="1"/>
     </row>
   </sheetData>
@@ -1461,14 +1461,14 @@
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.85546875" customWidth="1"/>
-    <col min="25" max="25" width="14.7109375" customWidth="1"/>
+    <col min="24" max="24" width="13.83984375" customWidth="1"/>
+    <col min="25" max="25" width="14.68359375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1545,7 +1545,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1568,7 +1568,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1585,7 +1585,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1602,7 +1602,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1619,7 +1619,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1639,7 +1639,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1659,7 +1659,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1676,7 +1676,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1708,7 +1708,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1737,7 +1737,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1763,7 +1763,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1783,7 +1783,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1803,7 +1803,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1826,7 +1826,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1846,7 +1846,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1878,7 +1878,7 @@
         <v>23.2</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1910,7 +1910,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1936,7 +1936,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1956,7 +1956,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1976,7 +1976,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1999,7 +1999,7 @@
         <v>95.29</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2019,7 +2019,7 @@
         <v>44.4</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2051,7 +2051,7 @@
         <v>18.559999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2083,7 +2083,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2109,7 +2109,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2129,7 +2129,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2149,7 +2149,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2172,7 +2172,7 @@
         <v>76.231999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2192,7 +2192,7 @@
         <v>35.520000000000003</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2224,7 +2224,7 @@
         <v>2.3199999999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2256,7 +2256,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2282,7 +2282,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2302,7 +2302,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2322,7 +2322,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2345,7 +2345,7 @@
         <v>9.5289999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2365,7 +2365,7 @@
         <v>4.4400000000000004</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2397,7 +2397,7 @@
         <v>2.3199999999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2429,7 +2429,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2455,7 +2455,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2475,7 +2475,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2495,7 +2495,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2518,7 +2518,7 @@
         <v>9.5289999999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2538,7 +2538,7 @@
         <v>4.4400000000000004</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2564,7 +2564,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2584,7 +2584,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2601,7 +2601,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2618,7 +2618,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2635,7 +2635,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2655,7 +2655,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2675,7 +2675,7 @@
         <v>2.66</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A51">
         <v>51</v>
       </c>
@@ -2695,7 +2695,7 @@
         <v>0.27300000000000002</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A52">
         <v>52</v>
       </c>
@@ -2715,7 +2715,7 @@
         <v>0.29799999999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A53">
         <v>53</v>
       </c>
@@ -2735,7 +2735,7 @@
         <v>0.63300000000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A54">
         <v>55</v>
       </c>
@@ -2758,7 +2758,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A55">
         <v>56</v>
       </c>
@@ -2778,7 +2778,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A56">
         <v>57</v>
       </c>
@@ -2807,7 +2807,7 @@
         <v>38.299999999999997</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A57">
         <v>58</v>
       </c>
@@ -2824,7 +2824,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A58">
         <v>59</v>
       </c>
@@ -2841,7 +2841,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A59">
         <v>60</v>
       </c>
@@ -2858,7 +2858,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A60">
         <v>61</v>
       </c>
@@ -2875,7 +2875,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A61">
         <v>62</v>
       </c>
@@ -2895,7 +2895,7 @@
         <v>0.50800000000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A62">
         <v>63</v>
       </c>
@@ -2918,7 +2918,7 @@
         <v>90.8</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A63">
         <v>64</v>
       </c>
@@ -2935,7 +2935,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A64">
         <v>65</v>
       </c>
@@ -2964,7 +2964,7 @@
         <v>53.1</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A65">
         <v>66</v>
       </c>
@@ -2981,7 +2981,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A66">
         <v>67</v>
       </c>
@@ -3004,7 +3004,7 @@
         <v>6.64</v>
       </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A67">
         <v>68</v>
       </c>
@@ -3021,7 +3021,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A68">
         <v>69</v>
       </c>
@@ -3050,7 +3050,7 @@
         <v>37.299999999999997</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A69">
         <v>70</v>
       </c>
@@ -3067,7 +3067,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A70">
         <v>71</v>
       </c>
@@ -3084,7 +3084,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A71">
         <v>72</v>
       </c>
@@ -3101,7 +3101,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A72">
         <v>73</v>
       </c>
@@ -3118,7 +3118,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A73">
         <v>74</v>
       </c>
@@ -3135,7 +3135,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A74">
         <v>75</v>
       </c>
@@ -3158,7 +3158,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A75">
         <v>76</v>
       </c>
@@ -3175,7 +3175,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A76">
         <v>77</v>
       </c>
@@ -3209,21 +3209,21 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="23.83984375" customWidth="1"/>
+    <col min="2" max="2" width="18.41796875" customWidth="1"/>
+    <col min="3" max="3" width="14.83984375" customWidth="1"/>
+    <col min="4" max="4" width="13.68359375" style="3" customWidth="1"/>
     <col min="5" max="5" width="11" style="3"/>
     <col min="6" max="6" width="11" style="4"/>
-    <col min="7" max="7" width="18.85546875" customWidth="1"/>
+    <col min="7" max="7" width="18.83984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -3249,7 +3249,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -3275,7 +3275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -3301,7 +3301,7 @@
         <v>294.19384915194502</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -3327,7 +3327,7 @@
         <v>326.68873947934497</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -3353,7 +3353,7 @@
         <v>642.00096149731496</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -3379,7 +3379,7 @@
         <v>777.78127395966203</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -3405,7 +3405,7 @@
         <v>829.37807234291699</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -3431,7 +3431,7 @@
         <v>1070.1238076750401</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -3457,7 +3457,7 @@
         <v>1164.62532700579</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -3483,7 +3483,7 @@
         <v>1201.90733927312</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -3509,7 +3509,7 @@
         <v>1450.08082529936</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -3535,7 +3535,7 @@
         <v>1526.38383586955</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -3561,7 +3561,7 @@
         <v>1569.76462122874</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -3587,7 +3587,7 @@
         <v>2172.8460090701301</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -3613,7 +3613,7 @@
         <v>2202.4547740344201</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -3639,7 +3639,7 @@
         <v>2307.2423413413298</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -3665,7 +3665,7 @@
         <v>1970.22760541659</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -3691,7 +3691,7 @@
         <v>2127.1924166593299</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -3717,7 +3717,7 @@
         <v>2242.8997514027201</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -3743,7 +3743,7 @@
         <v>682.940423876615</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -3769,7 +3769,7 @@
         <v>956.53549104561796</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>45</v>
       </c>

--- a/data/Concentration_Data_Plattsburgh_example.xlsx
+++ b/data/Concentration_Data_Plattsburgh_example.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gsienvironmental-my.sharepoint.com/personal/hmori_gsi-net_com/Documents/Desktop/5648_wroking/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gsienvironmental-my.sharepoint.com/personal/hmori_gsi-net_com/Documents/Desktop/5648_wroking/5648_TA2-Transition-Assessment-Assistant_1a/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13921F72-319B-4BC5-B8A4-0B9A06845877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{13921F72-319B-4BC5-B8A4-0B9A06845877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B8C3302-33D1-499E-9EE4-C6FFDDF9E014}"/>
   <bookViews>
-    <workbookView xWindow="71895" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="58515" yWindow="915" windowWidth="21600" windowHeight="10920" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Concentration_Time_Data" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="57">
   <si>
     <t>Event</t>
   </si>
@@ -173,16 +173,50 @@
   </si>
   <si>
     <t>Point of Compliance</t>
+  </si>
+  <si>
+    <t>PW-1</t>
+  </si>
+  <si>
+    <t>PW-3</t>
+  </si>
+  <si>
+    <t>MW-4</t>
+  </si>
+  <si>
+    <t>MW-5</t>
+  </si>
+  <si>
+    <t>MW-6</t>
+  </si>
+  <si>
+    <t>MW-7</t>
+  </si>
+  <si>
+    <t>MW-8</t>
+  </si>
+  <si>
+    <t>MW-9</t>
+  </si>
+  <si>
+    <t>P&amp;T Wells</t>
+  </si>
+  <si>
+    <t>Plume</t>
+  </si>
+  <si>
+    <t>MW-1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -192,8 +226,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -205,7 +252,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -213,23 +260,64 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -521,10 +609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:M67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11:H12"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -532,7 +620,7 @@
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -546,10 +634,34 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>56</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>1</v>
       </c>
@@ -565,8 +677,23 @@
       <c r="E2" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F2">
+        <v>1400</v>
+      </c>
+      <c r="H2">
+        <v>37.1</v>
+      </c>
+      <c r="I2">
+        <v>7</v>
+      </c>
+      <c r="L2">
+        <v>37.1</v>
+      </c>
+      <c r="M2">
+        <v>37.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>2</v>
       </c>
@@ -582,8 +709,23 @@
       <c r="E3" s="2">
         <v>20.666666666666668</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="G3">
+        <v>1900</v>
+      </c>
+      <c r="H3">
+        <v>41.9</v>
+      </c>
+      <c r="I3">
+        <v>8.49</v>
+      </c>
+      <c r="L3">
+        <v>41.9</v>
+      </c>
+      <c r="M3">
+        <v>41.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>3</v>
       </c>
@@ -599,8 +741,26 @@
       <c r="E4" s="2">
         <v>18.333333333333332</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F4">
+        <v>840</v>
+      </c>
+      <c r="G4">
+        <v>1400</v>
+      </c>
+      <c r="H4">
+        <v>13</v>
+      </c>
+      <c r="I4">
+        <v>10.7</v>
+      </c>
+      <c r="L4">
+        <v>13</v>
+      </c>
+      <c r="M4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>4</v>
       </c>
@@ -616,8 +776,26 @@
       <c r="E5" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F5">
+        <v>480</v>
+      </c>
+      <c r="G5">
+        <v>820</v>
+      </c>
+      <c r="H5">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="I5">
+        <v>11.2</v>
+      </c>
+      <c r="L5">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="M5">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>5</v>
       </c>
@@ -633,8 +811,23 @@
       <c r="E6" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F6">
+        <v>350</v>
+      </c>
+      <c r="G6">
+        <v>700</v>
+      </c>
+      <c r="H6">
+        <v>11.5</v>
+      </c>
+      <c r="L6">
+        <v>11.5</v>
+      </c>
+      <c r="M6">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>6</v>
       </c>
@@ -650,8 +843,26 @@
       <c r="E7" s="2">
         <v>13.333333333333334</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F7">
+        <v>270</v>
+      </c>
+      <c r="G7">
+        <v>525</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>12</v>
+      </c>
+      <c r="L7">
+        <v>5</v>
+      </c>
+      <c r="M7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>7</v>
       </c>
@@ -667,8 +878,20 @@
       <c r="E8" s="2">
         <v>15.333333333333334</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F8">
+        <v>290</v>
+      </c>
+      <c r="G8">
+        <v>535</v>
+      </c>
+      <c r="I8">
+        <v>15</v>
+      </c>
+      <c r="K8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>8</v>
       </c>
@@ -684,8 +907,32 @@
       <c r="E9" s="2">
         <v>10.333333333333334</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F9">
+        <v>390</v>
+      </c>
+      <c r="G9">
+        <v>620</v>
+      </c>
+      <c r="H9">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I9">
+        <v>9.4</v>
+      </c>
+      <c r="J9">
+        <v>7</v>
+      </c>
+      <c r="K9">
+        <v>8.49</v>
+      </c>
+      <c r="L9">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="M9">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>9</v>
       </c>
@@ -701,8 +948,29 @@
       <c r="E10" s="2">
         <v>9.6666666666666661</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F10">
+        <v>315</v>
+      </c>
+      <c r="G10">
+        <v>420</v>
+      </c>
+      <c r="H10">
+        <v>1.85</v>
+      </c>
+      <c r="J10">
+        <v>8.49</v>
+      </c>
+      <c r="K10">
+        <v>10.7</v>
+      </c>
+      <c r="L10">
+        <v>1.85</v>
+      </c>
+      <c r="M10">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>10</v>
       </c>
@@ -718,8 +986,23 @@
       <c r="E11" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F11">
+        <v>290</v>
+      </c>
+      <c r="G11">
+        <v>440</v>
+      </c>
+      <c r="I11">
+        <v>11.6</v>
+      </c>
+      <c r="J11">
+        <v>10.7</v>
+      </c>
+      <c r="K11">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>11</v>
       </c>
@@ -735,8 +1018,26 @@
       <c r="E12" s="2">
         <v>13.3</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="G12">
+        <v>440</v>
+      </c>
+      <c r="H12">
+        <v>1.8</v>
+      </c>
+      <c r="I12">
+        <v>14.3</v>
+      </c>
+      <c r="J12">
+        <v>11.2</v>
+      </c>
+      <c r="L12">
+        <v>37.1</v>
+      </c>
+      <c r="M12">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>12</v>
       </c>
@@ -752,8 +1053,23 @@
       <c r="E13">
         <v>10.4</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F13">
+        <v>300</v>
+      </c>
+      <c r="H13">
+        <v>1.2</v>
+      </c>
+      <c r="K13">
+        <v>12</v>
+      </c>
+      <c r="L13">
+        <v>41.9</v>
+      </c>
+      <c r="M13">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>13</v>
       </c>
@@ -769,8 +1085,29 @@
       <c r="E14">
         <v>10.199999999999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F14">
+        <v>210</v>
+      </c>
+      <c r="G14">
+        <v>280</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>12</v>
+      </c>
+      <c r="K14">
+        <v>15</v>
+      </c>
+      <c r="L14">
+        <v>13</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>14</v>
       </c>
@@ -786,8 +1123,29 @@
       <c r="E15">
         <v>10.1</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F15">
+        <v>150</v>
+      </c>
+      <c r="G15">
+        <v>200</v>
+      </c>
+      <c r="H15">
+        <v>1.2</v>
+      </c>
+      <c r="J15">
+        <v>15</v>
+      </c>
+      <c r="K15">
+        <v>9.4</v>
+      </c>
+      <c r="L15">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="M15">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>15</v>
       </c>
@@ -803,8 +1161,26 @@
       <c r="E16">
         <v>11.7</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F16">
+        <v>245</v>
+      </c>
+      <c r="G16">
+        <v>400</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>9.4</v>
+      </c>
+      <c r="L16">
+        <v>11.5</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>16</v>
       </c>
@@ -820,8 +1196,26 @@
       <c r="E17">
         <v>8.94</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F17">
+        <v>235</v>
+      </c>
+      <c r="G17">
+        <v>370</v>
+      </c>
+      <c r="H17">
+        <v>0.8</v>
+      </c>
+      <c r="K17">
+        <v>11.6</v>
+      </c>
+      <c r="L17">
+        <v>5</v>
+      </c>
+      <c r="M17">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>17</v>
       </c>
@@ -837,8 +1231,20 @@
       <c r="E18">
         <v>10.1</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F18">
+        <v>62</v>
+      </c>
+      <c r="G18">
+        <v>160</v>
+      </c>
+      <c r="J18">
+        <v>11.6</v>
+      </c>
+      <c r="K18">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>18</v>
       </c>
@@ -854,8 +1260,26 @@
       <c r="E19">
         <v>10.3</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F19">
+        <v>154</v>
+      </c>
+      <c r="G19">
+        <v>270</v>
+      </c>
+      <c r="H19">
+        <v>0.7</v>
+      </c>
+      <c r="J19">
+        <v>14.3</v>
+      </c>
+      <c r="L19">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="M19">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>19</v>
       </c>
@@ -871,8 +1295,32 @@
       <c r="E20">
         <v>9.3000000000000007</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F20">
+        <v>120</v>
+      </c>
+      <c r="G20">
+        <v>200</v>
+      </c>
+      <c r="H20">
+        <v>0.3</v>
+      </c>
+      <c r="I20">
+        <v>0.4</v>
+      </c>
+      <c r="J20">
+        <v>1.5</v>
+      </c>
+      <c r="K20">
+        <v>0.4</v>
+      </c>
+      <c r="L20">
+        <v>1.85</v>
+      </c>
+      <c r="M20">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>20</v>
       </c>
@@ -888,8 +1336,14 @@
       <c r="E21">
         <v>9.26</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F21">
+        <v>140</v>
+      </c>
+      <c r="G21">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>21</v>
       </c>
@@ -905,8 +1359,14 @@
       <c r="E22">
         <v>7.31</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F22">
+        <v>175</v>
+      </c>
+      <c r="G22">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <v>22</v>
       </c>
@@ -922,8 +1382,14 @@
       <c r="E23">
         <v>8.58</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F23">
+        <v>130</v>
+      </c>
+      <c r="G23">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <v>23</v>
       </c>
@@ -939,8 +1405,14 @@
       <c r="E24">
         <v>6.69</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F24">
+        <v>170</v>
+      </c>
+      <c r="G24">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
         <v>24</v>
       </c>
@@ -956,8 +1428,14 @@
       <c r="E25">
         <v>8.07</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F25">
+        <v>120</v>
+      </c>
+      <c r="G25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
         <v>25</v>
       </c>
@@ -973,8 +1451,14 @@
       <c r="E26">
         <v>7.75</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F26">
+        <v>120</v>
+      </c>
+      <c r="G26">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
         <v>26</v>
       </c>
@@ -990,8 +1474,14 @@
       <c r="E27">
         <v>9.0399999999999991</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F27">
+        <v>110</v>
+      </c>
+      <c r="G27">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1007,8 +1497,14 @@
       <c r="E28">
         <v>7.24</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F28">
+        <v>99</v>
+      </c>
+      <c r="G28">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1024,8 +1520,14 @@
       <c r="E29">
         <v>8.5500000000000007</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F29">
+        <v>91</v>
+      </c>
+      <c r="G29">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1041,8 +1543,14 @@
       <c r="E30">
         <v>8.41</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F30">
+        <v>99</v>
+      </c>
+      <c r="G30">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1058,8 +1566,14 @@
       <c r="E31">
         <v>9.11</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F31">
+        <v>110</v>
+      </c>
+      <c r="G31">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1075,8 +1589,14 @@
       <c r="E32">
         <v>8.49</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F32">
+        <v>94</v>
+      </c>
+      <c r="G32">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1092,8 +1612,14 @@
       <c r="E33">
         <v>8.51</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F33">
+        <v>78</v>
+      </c>
+      <c r="G33">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1109,8 +1635,14 @@
       <c r="E34">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F34">
+        <v>95</v>
+      </c>
+      <c r="G34">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1126,8 +1658,14 @@
       <c r="E35">
         <v>8.86</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F35">
+        <v>75</v>
+      </c>
+      <c r="G35">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1143,8 +1681,14 @@
       <c r="E36">
         <v>7.73</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F36">
+        <v>85</v>
+      </c>
+      <c r="G36">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1160,8 +1704,14 @@
       <c r="E37">
         <v>8.2100000000000009</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F37">
+        <v>75</v>
+      </c>
+      <c r="G37">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1177,8 +1727,14 @@
       <c r="E38">
         <v>8.19</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F38">
+        <v>89</v>
+      </c>
+      <c r="G38">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1194,8 +1750,14 @@
       <c r="E39">
         <v>8.02</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F39">
+        <v>83</v>
+      </c>
+      <c r="G39">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1211,8 +1773,14 @@
       <c r="E40">
         <v>8.76</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F40">
+        <v>90</v>
+      </c>
+      <c r="G40">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1228,8 +1796,14 @@
       <c r="E41">
         <v>8.01</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F41">
+        <v>74</v>
+      </c>
+      <c r="G41">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1245,8 +1819,14 @@
       <c r="E42">
         <v>7.38</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F42">
+        <v>87</v>
+      </c>
+      <c r="G42">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1262,8 +1842,14 @@
       <c r="E43">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F43">
+        <v>100</v>
+      </c>
+      <c r="G43">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1279,8 +1865,14 @@
       <c r="E44">
         <v>6</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F44">
+        <v>97</v>
+      </c>
+      <c r="G44">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1296,8 +1888,14 @@
       <c r="E45">
         <v>6.2</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F45">
+        <v>84</v>
+      </c>
+      <c r="G45">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1313,8 +1911,14 @@
       <c r="E46">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F46">
+        <v>98</v>
+      </c>
+      <c r="G46">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1330,8 +1934,14 @@
       <c r="E47">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F47">
+        <v>86</v>
+      </c>
+      <c r="G47">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1347,8 +1957,14 @@
       <c r="E48">
         <v>5.8</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F48">
+        <v>140</v>
+      </c>
+      <c r="G48">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1364,8 +1980,14 @@
       <c r="E49">
         <v>5.8</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F49">
+        <v>210</v>
+      </c>
+      <c r="G49">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1381,8 +2003,14 @@
       <c r="E50">
         <v>6.4</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F50">
+        <v>120</v>
+      </c>
+      <c r="G50">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1398,44 +2026,47 @@
       <c r="E51">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F51">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B52" s="1"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B53" s="1"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B54" s="1"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B55" s="1"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B56" s="1"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B57" s="1"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B58" s="1"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B59" s="1"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B60" s="1"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B61" s="1"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B62" s="1"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B63" s="1"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B64" s="1"/>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.55000000000000004">
@@ -3206,10 +3837,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -3795,7 +4426,170 @@
         <v>2665.74</v>
       </c>
     </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="6">
+        <v>29.733560000000001</v>
+      </c>
+      <c r="C23" s="6">
+        <v>-95.413349999999994</v>
+      </c>
+      <c r="F23" s="4">
+        <v>2277</v>
+      </c>
+      <c r="G23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="6">
+        <v>29.73556</v>
+      </c>
+      <c r="C24" s="6">
+        <v>-95.415350000000004</v>
+      </c>
+      <c r="F24" s="4">
+        <v>2277</v>
+      </c>
+      <c r="G24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="6">
+        <v>29.732679999999998</v>
+      </c>
+      <c r="C25" s="6">
+        <v>-95.411810000000003</v>
+      </c>
+      <c r="F25" s="4">
+        <v>2277</v>
+      </c>
+      <c r="G25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="6">
+        <v>29.733730000000001</v>
+      </c>
+      <c r="C26" s="6">
+        <v>-95.412239999999997</v>
+      </c>
+      <c r="F26" s="4">
+        <v>2277</v>
+      </c>
+      <c r="G26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="6">
+        <v>29.733250000000002</v>
+      </c>
+      <c r="C27" s="6">
+        <v>-95.411389999999997</v>
+      </c>
+      <c r="F27" s="4">
+        <v>2277</v>
+      </c>
+      <c r="G27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="6">
+        <v>29.733989999999999</v>
+      </c>
+      <c r="C28" s="6">
+        <v>-95.410929999999993</v>
+      </c>
+      <c r="F28" s="4">
+        <v>2277</v>
+      </c>
+      <c r="G28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="6">
+        <v>29.732690000000002</v>
+      </c>
+      <c r="C29" s="6">
+        <v>-95.413179999999997</v>
+      </c>
+      <c r="F29" s="4">
+        <v>2277</v>
+      </c>
+      <c r="G29" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" s="6">
+        <v>29.732559999999999</v>
+      </c>
+      <c r="C30" s="6">
+        <v>-95.412350000000004</v>
+      </c>
+      <c r="F30" s="4">
+        <v>2277</v>
+      </c>
+      <c r="G30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="8">
+        <v>29.731660000000002</v>
+      </c>
+      <c r="C31" s="8">
+        <v>-95.412599999999998</v>
+      </c>
+      <c r="F31" s="4">
+        <v>2277</v>
+      </c>
+      <c r="G31" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="B31">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+      <formula>#REF!&lt;&gt;$E31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31">
+    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+      <formula>#REF!&lt;&gt;$E31</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
